--- a/regionseng/2/business sector/by size.xlsx
+++ b/regionseng/2/business sector/by size.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20809F5-7930-4E9D-ABAB-8783E816E63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="14790" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
@@ -275,6 +276,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -310,6 +328,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,11 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -501,7 +536,7 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,10 +545,10 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -522,14 +557,14 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6">
         <v>2006</v>
@@ -576,8 +611,14 @@
       <c r="P5" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -626,8 +667,14 @@
       <c r="P6" s="11">
         <v>3383.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="11">
+        <v>3627.3</v>
+      </c>
+      <c r="R6" s="11">
+        <v>3975.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -676,8 +723,14 @@
       <c r="P7" s="12">
         <v>743.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="12">
+        <v>1080.3</v>
+      </c>
+      <c r="R7" s="12">
+        <v>1333.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -726,8 +779,14 @@
       <c r="P8" s="12">
         <v>1153.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="12">
+        <v>1070</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1007.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -776,11 +835,17 @@
       <c r="P9" s="12">
         <v>1486.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="12">
+        <v>1477</v>
+      </c>
+      <c r="R9" s="12">
+        <v>1634.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -789,10 +854,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>2006</v>
@@ -839,8 +904,14 @@
       <c r="P13" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>1</v>
       </c>
@@ -889,8 +960,14 @@
       <c r="P14" s="11">
         <v>2273.3000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="11">
+        <v>2301.3000000000002</v>
+      </c>
+      <c r="R14" s="11">
+        <v>2583.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -939,8 +1016,14 @@
       <c r="P15" s="12">
         <v>595.79999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="12">
+        <v>663.1</v>
+      </c>
+      <c r="R15" s="12">
+        <v>754.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1072,14 @@
       <c r="P16" s="12">
         <v>825.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="12">
+        <v>773</v>
+      </c>
+      <c r="R16" s="12">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -1039,11 +1128,17 @@
       <c r="P17" s="12">
         <v>852.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="12">
+        <v>865.3</v>
+      </c>
+      <c r="R17" s="12">
+        <v>1082.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
@@ -1052,10 +1147,10 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6">
         <v>2006</v>
@@ -1102,8 +1197,14 @@
       <c r="P21" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>1</v>
       </c>
@@ -1152,8 +1253,14 @@
       <c r="P22" s="13">
         <v>26994.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="13">
+        <v>28380</v>
+      </c>
+      <c r="R22" s="13">
+        <v>29494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
@@ -1202,8 +1309,14 @@
       <c r="P23" s="14">
         <v>2861</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="14">
+        <v>2816</v>
+      </c>
+      <c r="R23" s="14">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
@@ -1252,8 +1365,14 @@
       <c r="P24" s="14">
         <v>6266.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="14">
+        <v>5898</v>
+      </c>
+      <c r="R24" s="14">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
@@ -1302,11 +1421,17 @@
       <c r="P25" s="14">
         <v>17867.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="14">
+        <v>19667</v>
+      </c>
+      <c r="R25" s="14">
+        <v>20859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -1315,10 +1440,10 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6">
         <v>2006</v>
@@ -1365,8 +1490,14 @@
       <c r="P29" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>1</v>
       </c>
@@ -1415,8 +1546,14 @@
       <c r="P30" s="11">
         <v>1018.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="11">
+        <v>977.5</v>
+      </c>
+      <c r="R30" s="11">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -1465,8 +1602,14 @@
       <c r="P31" s="12">
         <v>1764</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="12">
+        <v>2027.9</v>
+      </c>
+      <c r="R31" s="12">
+        <v>2435.8000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
@@ -1515,8 +1658,14 @@
       <c r="P32" s="12">
         <v>1265</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="12">
+        <v>1341.4</v>
+      </c>
+      <c r="R32" s="12">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1564,6 +1713,12 @@
       </c>
       <c r="P33" s="12">
         <v>730</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>628.9</v>
+      </c>
+      <c r="R33" s="12">
+        <v>906.9</v>
       </c>
     </row>
   </sheetData>
